--- a/ViecLam.Api/Data/Cv.xlsx
+++ b/ViecLam.Api/Data/Cv.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuk\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548005C-EF6B-4A77-AEB1-E177DF908E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -22,409 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">SƠ YẾU LÝ LỊCH_x000A_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <i/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tự khai)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>THÔNG TIN CƠ BẢN</t>
-    </r>
-  </si>
-  <si>
-    <t>asdasdad</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <i/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Ngày khai Form:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Họ và tên</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Số CMND:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve"> 084193001368</t>
-    </r>
-  </si>
-  <si>
-    <t>N-T năm sinh</t>
-  </si>
-  <si>
-    <t>17/12/1993</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tuổi:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Ngày Cấp:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve"> 08/04/2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tình trạng hôn nhân</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã kết hôn      Ly thân</t>
-  </si>
-  <si>
-    <t>Đã ly hôn</t>
-  </si>
-  <si>
-    <t>Chưa kết hôn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>SĐT</t>
-    </r>
-  </si>
-  <si>
-    <t>TTS: 036 8940 774</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Địa chỉ:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ấp Vĩnh Hưng, Xã Long Đức, Thành phố Trà Vinh, Tỉnh Trà Vinh</t>
-  </si>
-  <si>
-    <t>Người thân: 085 4539 231</t>
-  </si>
-  <si>
-    <t>CBTD: 034 4315 150</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Thị lực (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <i/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">Mắt):  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Có kính:  10/10               Không kính</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuận tay:             Phải                Trái</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Mù màu:                      Có                         Không</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chân tay có dị tật không?              </t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
-    <t>Không</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiều cao:               152 Cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cân nặng:                      52 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã phẫu thuật lần nào chưa?        </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Nhóm máu:         A                B                AB                 O</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Có hinh xăm không?                    </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Gia đình có tiền sử bệnh lý không? Có                   Không</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Có uống bia, rượu không?             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuyên ngành/chuyên môn đã được đào tạo
- NGÀNH NHẬT BẢN HỌC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có hút thuốc không?                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôn giáo (ghi rõ tôn giáo gì)        </t>
-  </si>
-  <si>
-    <t>Điểm mạnh (Trong tính cách): Chăm chỉ, nghiêm túc.</t>
-  </si>
-  <si>
-    <t>Điểm yếu (Trong tính cách): Hồi hộp trước đám đông.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>Có kinh nghiệm sống tập thể?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Có                      Không</t>
-    </r>
-  </si>
-  <si>
-    <t>Sở thích: Nấu ăn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Có biết nấu ăn không?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tự nhận xét về tính cách:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve"> Hòa đồng với mọi người, ham học hỏi, nghiêm túc trong công việc, tính cẩn thận cao, thích đúng giờ. Có thể làm chậm nhưng làm việc nào chắc chắn việc đó, có tính tiết kiệm.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Thu nhập bản thân</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 triệu 500 nghìn đồng đồng/tháng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Thu nhập gia đình</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dưới 1 triệu đồng đồng/tháng</t>
-  </si>
-  <si>
-    <t>Lý do đi Nhật: Kiếm tiền phụ giúp gia đình, lo cho ba mẹ khi tuổi đã cao. Tìm hiểu, trải nghiệm văn hóa cuộc sống của Nhật Bản. Rèn luyện, nâng cao khả năng giao tiếp bằng tiếng Nhật.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sau 3 năm Anh/chị muốn mang bao nhiêu tiền về Việt Nam?
-Khoảng 400 Triệu</t>
-  </si>
-  <si>
-    <r>
-      <t>Sau khi hết hạn hợp đồng, về nước Anh/Chị sẽ làm gì?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">_x000A_Sau khi kết thúc hợp đồng nếu có thể tôi muốn tiếp tục ở lại Nhật Bản tiếp tục làm việc._x000A_Nếu trở về Việt Nam tôi muốn làm những công việc liên quan đến tiếng Nhật như phiên dịch, dạy học.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Anh/chị đã từng ra nước ngoài chưa?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Đã từng                      Nước nào:                    Năm nào:</t>
-    </r>
-  </si>
-  <si>
-    <t>Chưa từng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Anh/chị đã từng làm thủ tục đăng ký xin VISA đi Nhật lần nào chưa?  Đã đăng ký</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Chưa từng</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -433,304 +30,133 @@
         <b/>
         <sz val="10.5"/>
       </rPr>
-      <t>QUÁ TRÌNH HỌC TẬP (Yêu cầu khai chính xác, trung thực)</t>
+      <t>PHẦN BỔ SUNG THÔNG TIN CHI TIẾT DÀNH CHO CBTD VÀ TTS</t>
     </r>
   </si>
   <si>
-    <t>Từ tháng/năm</t>
+    <t>Anh/Chị đã từng đi Nhật Bản chưa?</t>
   </si>
   <si>
-    <t>Đến tháng/năm</t>
+    <t xml:space="preserve">Đã từng đi Nhật Bản                        Năm nào:                         
+Chưa từng đi Nhật Bản</t>
+  </si>
+  <si>
+    <t>Nếu có đi thì đi Nhật Bản theo hình thức nào sau đây?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du lịch, thăm thân                                  
+Làm việc (Theo diện: Kỹ su, kỹ thuật viên)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du học                                         Thực tập sinh                                                 Công tác</t>
+  </si>
+  <si>
+    <t>Anh/Chị có biết tiếng Nhật không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có                                  Không</t>
+  </si>
+  <si>
+    <t>Cấp độ tiếng Nhật đạt đến bài nào?</t>
+  </si>
+  <si>
+    <t>Tên trường/Trung tâm đào tạo tiếng Nhật?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh chị đã từng học nghề và học định hướng để  tham  gia  chương  trình  XKLĐ  sang  Nhật Bản ở đâu chưa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã từng tham gia                                            Chưa từng tham gia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh/Chị  đã  từng  nộp  hồ  sơ  xin  tham  gia chương trình TTS Nhật Bản ở đâu chưa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã từng                                                            Chưa từng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh/Chị  đã  được  tham  gia  phỏng  vấn  thi tuyển đơn hàng nào chưa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã phỏng vấn                                                   Chưa phòng vấn</t>
+  </si>
+  <si>
+    <t>Anh/Chị đã trúng tuyển đơn hàng nào chưa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã trúng tuyển                                                 Không trúng tuyển</t>
+  </si>
+  <si>
+    <t>Tên đơn hàng mà Anh/Chị đã trúng tuyển?</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="9.5"/>
+        <sz val="11"/>
       </rPr>
-      <t>Tên trường</t>
+      <t>Tại   sao   được   thông   báo   trúng   tuyển   mà_x000A_Anh/Chị không được xuất cảnh?</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Chuyên ngành được đào tạo</t>
-    </r>
+    <t>Lý do hoãn, hủy đơn hàng</t>
   </si>
   <si>
-    <t>09/1999</t>
+    <t xml:space="preserve">Do đối tác                              Do hoàn cảnh gia đình                                     Do cá nhân</t>
   </si>
   <si>
-    <t>05/2004</t>
+    <t>Đề nghị Anh/Chị ghi rõ lý do hoãn hủy đơn hàng:</t>
   </si>
   <si>
-    <t>Tiểu học long đức A</t>
+    <t>Đề nghị Anh/Chị cho biết tên, SĐT, Trung tâm XKLĐ Nhật Bản mà Anh/Chị đã từng tham gia:</t>
   </si>
   <si>
-    <t>09/2004</t>
+    <t>Anh/Chị có người thân ở Nhật Bản không?</t>
   </si>
   <si>
-    <t>05/2008</t>
+    <t xml:space="preserve">Có                                                      Không</t>
   </si>
   <si>
-    <t>Trung học cơ sở Long Đức</t>
-  </si>
-  <si>
-    <t>9/2008</t>
-  </si>
-  <si>
-    <t>05/2011</t>
-  </si>
-  <si>
-    <t>Trung học phổ thông Chuyên Nguyễn Thiện Thành</t>
-  </si>
-  <si>
-    <t>09/2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/2015</t>
-  </si>
-  <si>
-    <t>Đại học Văn Hiến</t>
-  </si>
-  <si>
-    <t>Đông phương học</t>
+    <t>Quan hệ cụ thể</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tình trạng học tập:   Học muộn                                    Học sớm                                    Học lại</t>
+      <t xml:space="preserve">Ông                     Bà                      Bố               Mẹ                   Bác                   Cô                Chú Dì                Cậu Mợ              Vợ                  Chồng          _x000A_Anh                     Chị                     Em                _x000A_</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Năm nào:</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <b/>
-        <sz val="10.5"/>
+        <sz val="11"/>
       </rPr>
-      <t>QUÁ TRÌNH LÀM VIỆC (Yêu cầu khai chính xác, trung thực)</t>
+      <t>Giải thích quan hệ:</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tên cty/ hoặc nơi làm việc</t>
-    </r>
+    <t>Họ và tên người thân đang ở Nhật Bản:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Nội dung công việc (Công việc cụ thể đã làm)</t>
-    </r>
+    <t>Địa chỉ người thân đang ở Nhật Bản:</t>
   </si>
   <si>
-    <t>12/2015</t>
+    <t>Số điện thoại người thân đang ở Nhật Bản:</t>
   </si>
   <si>
-    <t>01/2025</t>
+    <t>NGƯỜI KÊ KHAI</t>
   </si>
   <si>
-    <t>Công ty TNHH Yazaki EDS</t>
+    <t>CÁN BỘ TUYỂN DỤNG</t>
   </si>
   <si>
-    <t>Line Control Quality (Quản Lý Sản Xuất)</t>
+    <t xml:space="preserve">Sau khi được nhân viên tuyển dụng là                                                      tư vấn và hướng dẫn khai form, tôi cam đoàn những lời khai trên tờ forrm này là hoàn toàn chính xác và đúng sự thật. Nếu sai tôi sẽ chịu trách nhiệm hoàn toàn trước Công ty bao gồm: Không được nhập học, không được thi tuyển, hủy trúng tuyển và chịu trách nhiệm tài chính.
+(Ký và ghi rõ họ tên)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="10.5"/>
-      </rPr>
-      <t>THÀNH PHẦN GIA ĐÌNH (Yêu cầu khai chính xác, trung thực)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Gia đình có đồng ý cho Anh/Chị đi thực tập sinh tại Nhật không?
-Có                    Không</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Quan hệ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Tuổi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Nghề nghiệp</t>
-    </r>
-  </si>
-  <si>
-    <t>Sống chung</t>
-  </si>
-  <si>
-    <t>Sống riêng</t>
-  </si>
-  <si>
-    <t>Trần Văn Khái</t>
-  </si>
-  <si>
-    <t>Cha</t>
-  </si>
-  <si>
-    <t>Nông dân</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Phạm Thị Huệ</t>
-  </si>
-  <si>
-    <t>Mẹ</t>
-  </si>
-  <si>
-    <t>Nội trợ</t>
-  </si>
-  <si>
-    <t>Trần Thị Mỹ Xuyên</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Em</t>
-  </si>
-  <si>
-    <t>Công nhân</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>Trong các thành viên trong gia đình khai trên: Ai đã từng xin VISA hoặc đã sang Nhật Bản chưa?</t>
-    </r>
-  </si>
-  <si>
-    <t>Tôi xin cam đoan nhứng lời khai trên là hoàn toàn đúng sự thật, nếu sai tôi xin chịu trách nhiệm và chấp nhận nộp phạt theo quy định của  CT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">Người kê khai_x000A_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <i/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">Ký và ghi rõ họ tên </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">Cán Bộ tuyển dụng_x000A_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>(Ký và ghi rõ họ tên)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <b/>
-        <sz val="9.5"/>
-      </rPr>
-      <t xml:space="preserve">Kiểm soát_x000A_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <sz val="9.5"/>
-      </rPr>
-      <t>(Ký và ghi rõ họ tên)</t>
-    </r>
+    <t xml:space="preserve">Tôi là:…………………….....................Chức vụ                đã hướng  dẫn  TTS  tên  là:…………………..khai  forrm,  tôi đã kiểm tra kỹ việc khai Form và cam kết các thông tin trên  Form  là  hoàn  toàn  chính  xác.  Nếu  sai, tôi  xin chịu mọi hình thức kỷ luật theo quy định của Công ty.
+(Ký và ghi rõ họ tên)
+Kê khai nguồn tuyển dụng (Ghi rõ tên, SĐT)</t>
   </si>
   <si>
     <t>giới thiệu bản thân</t>
@@ -1004,144 +430,668 @@
       <rPr>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <b/>
-        <sz val="10.5"/>
+        <sz val="9.5"/>
       </rPr>
-      <t>PHẦN BỔ SUNG THÔNG TIN CHI TIẾT DÀNH CHO CBTD VÀ TTS</t>
+      <t xml:space="preserve">SƠ YẾU LÝ LỊCH_x000A_</t>
     </r>
-  </si>
-  <si>
-    <t>Anh/Chị đã từng đi Nhật Bản chưa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã từng đi Nhật Bản                        Năm nào:                         
-Chưa từng đi Nhật Bản</t>
-  </si>
-  <si>
-    <t>Nếu có đi thì đi Nhật Bản theo hình thức nào sau đây?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Du lịch, thăm thân                                  
-Làm việc (Theo diện: Kỹ su, kỹ thuật viên)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Du học                                         Thực tập sinh                                                 Công tác</t>
-  </si>
-  <si>
-    <t>Anh/Chị có biết tiếng Nhật không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có                                  Không</t>
-  </si>
-  <si>
-    <t>Cấp độ tiếng Nhật đạt đến bài nào?</t>
-  </si>
-  <si>
-    <t>Tên trường/Trung tâm đào tạo tiếng Nhật?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh chị đã từng học nghề và học định hướng để  tham  gia  chương  trình  XKLĐ  sang  Nhật Bản ở đâu chưa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã từng tham gia                                            Chưa từng tham gia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh/Chị  đã  từng  nộp  hồ  sơ  xin  tham  gia chương trình TTS Nhật Bản ở đâu chưa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã từng                                                            Chưa từng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh/Chị  đã  được  tham  gia  phỏng  vấn  thi tuyển đơn hàng nào chưa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã phỏng vấn                                                   Chưa phòng vấn</t>
-  </si>
-  <si>
-    <t>Anh/Chị đã trúng tuyển đơn hàng nào chưa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã trúng tuyển                                                 Không trúng tuyển</t>
-  </si>
-  <si>
-    <t>Tên đơn hàng mà Anh/Chị đã trúng tuyển?</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <i/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tự khai)</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="11"/>
+        <sz val="9.5"/>
       </rPr>
-      <t>Tại   sao   được   thông   báo   trúng   tuyển   mà_x000A_Anh/Chị không được xuất cảnh?</t>
+      <t>Ảnh 3 X 4</t>
     </r>
   </si>
   <si>
-    <t>Lý do hoãn, hủy đơn hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do đối tác                              Do hoàn cảnh gia đình                                     Do cá nhân</t>
-  </si>
-  <si>
-    <t>Đề nghị Anh/Chị ghi rõ lý do hoãn hủy đơn hàng:</t>
-  </si>
-  <si>
-    <t>Đề nghị Anh/Chị cho biết tên, SĐT, Trung tâm XKLĐ Nhật Bản mà Anh/Chị đã từng tham gia:</t>
-  </si>
-  <si>
-    <t>Anh/Chị có người thân ở Nhật Bản không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có                                                      Không</t>
-  </si>
-  <si>
-    <t>Quan hệ cụ thể</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>THÔNG TIN CƠ BẢN</t>
+    </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ông                     Bà                      Bố               Mẹ                   Bác                   Cô                Chú Dì                Cậu Mợ              Vợ                  Chồng          _x000A_Anh                     Chị                     Em                _x000A_</t>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <i/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Ngày khai Form:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Họ và tên</t>
+    </r>
+  </si>
+  <si>
+    <t>asdasdad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Số CMND:</t>
+    </r>
+  </si>
+  <si>
+    <t>N-T năm sinh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tuổi:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Ngày Cấp:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tình trạng hôn nhân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Đã kết hôn     Ly thân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Đã ly hôn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Chưa kết hôn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>SĐT</t>
+    </r>
+  </si>
+  <si>
+    <t>TTS:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Địa chỉ:</t>
+    </r>
+  </si>
+  <si>
+    <t>Người thân:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTD: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Thị lực (</t>
     </r>
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <b/>
-        <sz val="11"/>
+        <i/>
+        <sz val="9.5"/>
       </rPr>
-      <t>Giải thích quan hệ:</t>
+      <t xml:space="preserve">Mắt):  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Có kính:                 Không kính</t>
     </r>
   </si>
   <si>
-    <t>Họ và tên người thân đang ở Nhật Bản:</t>
+    <t xml:space="preserve">Thuận tay:             Phải                Trái</t>
   </si>
   <si>
-    <t>Địa chỉ người thân đang ở Nhật Bản:</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Mù màu:                      Có                         Không</t>
+    </r>
   </si>
   <si>
-    <t>Số điện thoại người thân đang ở Nhật Bản:</t>
+    <t xml:space="preserve">Chân tay có dị tật không?              </t>
   </si>
   <si>
-    <t>NGƯỜI KÊ KHAI</t>
+    <t>Có</t>
   </si>
   <si>
-    <t>CÁN BỘ TUYỂN DỤNG</t>
+    <t>Không</t>
   </si>
   <si>
-    <t xml:space="preserve">Sau khi được nhân viên tuyển dụng là                                                      tư vấn và hướng dẫn khai form, tôi cam đoàn những lời khai trên tờ forrm này là hoàn toàn chính xác và đúng sự thật. Nếu sai tôi sẽ chịu trách nhiệm hoàn toàn trước Công ty bao gồm: Không được nhập học, không được thi tuyển, hủy trúng tuyển và chịu trách nhiệm tài chính.
-(Ký và ghi rõ họ tên)</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Chiều cao:                 Cm</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Tôi là:…………………….....................Chức vụ                đã hướng  dẫn  TTS  tên  là:…………………..khai  forrm,  tôi đã kiểm tra kỹ việc khai Form và cam kết các thông tin trên  Form  là  hoàn  toàn  chính  xác.  Nếu  sai, tôi  xin chịu mọi hình thức kỷ luật theo quy định của Công ty.
-(Ký và ghi rõ họ tên)
-Kê khai nguồn tuyển dụng (Ghi rõ tên, SĐT)</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Cân nặng:                       kg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã phẫu thuật lần nào chưa?        </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Nhóm máu:         A                B                AB                 O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Có hinh xăm không?                    </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Gia đình có tiền sử bệnh lý không? Có                   Không</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Có uống bia, rượu không?             </t>
+  </si>
+  <si>
+    <t>Chuyên ngành/chuyên môn đã được đào tạo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có hút thuốc không?                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôn giáo (ghi rõ tôn giáo gì)        </t>
+  </si>
+  <si>
+    <t>Điểm mạnh (Trong tính cách)</t>
+  </si>
+  <si>
+    <t>Điểm yếu (Trong tính cách)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>Có kinh nghiệm sống tập thể?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Có                      Không</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Sở thích:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Có biết nấu ăn không?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tự nhận xét về tính cách:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Thu nhập bản thân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>đồng/tháng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Thu nhập gia đình</t>
+    </r>
+  </si>
+  <si>
+    <t>Lý do đi Nhật:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Sau 3 năm Anh/chị muốn mang bao nhiêu tiền về Việt Nam?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Sau khi hết hạn hợp đồng, về nước Anh/Chị sẽ làm gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Anh/chị đã từng ra nước ngoài chưa?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Đã từng                      Nước nào:                    Năm nào:</t>
+    </r>
+  </si>
+  <si>
+    <t>Chưa từng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Anh/chị đã từng làm thủ tục đăng ký xin VISA đi Nhật lần nào chưa?  Đã đăng ký</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Chưa từng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="10.5"/>
+      </rPr>
+      <t>QUÁ TRÌNH HỌC TẬP (Yêu cầu khai chính xác, trung thực)</t>
+    </r>
+  </si>
+  <si>
+    <t>Từ tháng/năm</t>
+  </si>
+  <si>
+    <t>Đến tháng/năm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tên trường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Chuyên ngành được đào tạo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tình trạng học tập:   Học muộn                                    Học sớm                                    Học lại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Năm nào:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="10.5"/>
+      </rPr>
+      <t>QUÁ TRÌNH LÀM VIỆC (Yêu cầu khai chính xác, trung thực)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tên cty/ hoặc nơi làm việc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Nội dung công việc (Công việc cụ thể đã làm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="10.5"/>
+      </rPr>
+      <t>THÀNH PHẦN GIA ĐÌNH (Yêu cầu khai chính xác, trung thực)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gia đình có đồng ý cho Anh/Chị đi thực tập sinh tại Nhật không?
+Có                    Không</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Quan hệ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Tuổi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Nghề nghiệp</t>
+    </r>
+  </si>
+  <si>
+    <t>Sống chung</t>
+  </si>
+  <si>
+    <t>Sống riêng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>Trong các thành viên trong gia đình khai trên: Ai đã từng xin VISA hoặc đã sang Nhật Bản chưa?</t>
+    </r>
+  </si>
+  <si>
+    <t>Tôi xin cam đoan nhứng lời khai trên là hoàn toàn đúng sự thật, nếu sai tôi xin chịu trách nhiệm và chấp nhận nộp phạt theo quy định của  CT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="9.5"/>
+      </rPr>
+      <t xml:space="preserve">Người kê khai_x000A_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <i/>
+        <sz val="9.5"/>
+      </rPr>
+      <t xml:space="preserve">Ký và ghi rõ họ tên </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="9.5"/>
+      </rPr>
+      <t xml:space="preserve">Cán Bộ tuyển dụng_x000A_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>(Ký và ghi rõ họ tên)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <b/>
+        <sz val="9.5"/>
+      </rPr>
+      <t xml:space="preserve">Kiểm soát_x000A_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <sz val="9.5"/>
+      </rPr>
+      <t>(Ký và ghi rõ họ tên)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1293,13 +1243,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1812,208 +1755,280 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="23" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="25" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="27" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -2024,353 +2039,254 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="29" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="30" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="34" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="35" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="37" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="40" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="40" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="41" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="34" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="35" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="36" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="28" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="31" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="32" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="33" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="40" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2806,6 +2722,20 @@
           </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr/>
+            <a:t>✓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -3014,13 +2944,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="vi-VN"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -3034,7 +2957,7 @@
     <xdr:ext cx="113030" cy="121920"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Shape 24" descr="s&#10;">
+        <xdr:cNvPr id="24" name="Shape 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
@@ -3232,29 +3155,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -3468,21 +3368,6 @@
           </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -3986,21 +3871,6 @@
           </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -4419,21 +4289,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -5018,21 +4873,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -6688,21 +6528,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -7041,21 +6866,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -8638,21 +8448,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -8861,21 +8656,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -9084,21 +8864,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -9307,21 +9072,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -9530,21 +9280,6 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -9753,28 +9488,13 @@
           <a:srgbClr val="000000"/>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>72736</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -9792,7 +9512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5510645" y="1561234"/>
+          <a:off x="5524500" y="1685925"/>
           <a:ext cx="114300" cy="119380"/>
         </a:xfrm>
         <a:custGeom>
@@ -9978,21 +9698,6 @@
           </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -10203,21 +9908,6 @@
           </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN">
-            <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -10431,111 +10121,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157843</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="254557"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241D8BB5-223A-E46E-3F2E-E8E33042B757}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="1344386"/>
-          <a:ext cx="184731" cy="254557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>215416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C268BC37-F260-31F3-55C6-8F63223AC4B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6452153" y="0"/>
-          <a:ext cx="629478" cy="770352"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16633,9 +16218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16673,9 +16258,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16710,7 +16295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16745,7 +16330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16918,15 +16503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -16942,902 +16526,834 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="66" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54"/>
+      <c r="A2" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+        <v>103</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="42"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="90" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="163" t="s">
-        <v>12</v>
+      <c r="C5" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="91" t="s">
+        <v>108</v>
       </c>
       <c r="F5" s="86"/>
-      <c r="G5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="71"/>
+      <c r="G5" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="71"/>
+      <c r="A6" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="71"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="A8" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="71"/>
+      <c r="F8" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="84" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
       <c r="E9" s="86"/>
-      <c r="F9" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+      <c r="F9" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="174" t="s">
-        <v>26</v>
+      <c r="A10" s="84" t="s">
+        <v>121</v>
       </c>
       <c r="B10" s="86"/>
-      <c r="C10" s="175" t="s">
-        <v>27</v>
+      <c r="C10" s="87" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="88"/>
       <c r="E10" s="89"/>
-      <c r="F10" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="F10" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="A11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="A12" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="165" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="A13" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="168"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="91"/>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="106"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="112"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="171"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="71"/>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" ht="14.85" customHeight="1">
-      <c r="A17" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="71"/>
+      <c r="A17" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
+      <c r="A18" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="178" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
+      <c r="A19" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="178" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
+      <c r="A20" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="71"/>
+      <c r="A21" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="164" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="71"/>
+      <c r="A22" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
-    <row r="23" ht="42" customHeight="1">
-      <c r="A23" s="164" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="71"/>
+    <row r="23" ht="28.35" customHeight="1">
+      <c r="A23" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="99"/>
+      <c r="A24" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="99"/>
+      <c r="A25" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="A26" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="41" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="117"/>
+        <v>151</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="181" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="182" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="176" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="112"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="182" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="176" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="112"/>
     </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="181" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="182" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="176" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="91"/>
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="112"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="181" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="182" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="176" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="91"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="112"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
+      <c r="A32" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="118"/>
+        <v>155</v>
+      </c>
+      <c r="K32" s="132"/>
     </row>
     <row r="33" ht="15.95" customHeight="1">
-      <c r="A33" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="111"/>
+      <c r="A33" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="41" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D34" s="88"/>
       <c r="E34" s="89"/>
-      <c r="F34" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="121"/>
+      <c r="F34" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="135"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="181" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="182" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="176" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="124"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="138"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="138"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="179"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="124"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="138"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="179"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="124"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="138"/>
     </row>
     <row r="39" ht="15.2" customHeight="1">
-      <c r="A39" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39" s="128"/>
+      <c r="A39" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="142"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="113"/>
+      <c r="A40" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="127"/>
+      <c r="C40" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="127"/>
       <c r="E40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="67"/>
+        <v>162</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="79"/>
       <c r="H40" s="5" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="129"/>
-      <c r="K40" s="130"/>
+        <v>165</v>
+      </c>
+      <c r="J40" s="143"/>
+      <c r="K40" s="144"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="176" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="2">
-        <v>70</v>
-      </c>
-      <c r="F41" s="176" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="186" t="s">
-        <v>92</v>
-      </c>
+      <c r="A41" s="140"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="130"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="144"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="2">
-        <v>70</v>
-      </c>
-      <c r="F42" s="176" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="186" t="s">
-        <v>92</v>
-      </c>
+      <c r="A42" s="140"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="130"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="144"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="176" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="2">
-        <v>28</v>
-      </c>
-      <c r="F43" s="176" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="186" t="s">
-        <v>92</v>
-      </c>
+      <c r="A43" s="140"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="130"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="144"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="126"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="64"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="64"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="130"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="144"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="126"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="64"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="64"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="130"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="144"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="126"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="64"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="130"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="144"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="126"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="64"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="64"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="132"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="146"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="71"/>
+      <c r="A48" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="134" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="136"/>
+      <c r="A49" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="149"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="150"/>
     </row>
     <row r="50" ht="47.45" customHeight="1">
-      <c r="A50" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="184" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="138"/>
-      <c r="K50" s="143"/>
+      <c r="A50" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" s="152"/>
+      <c r="K50" s="158"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -17912,10 +17428,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F18:K20"/>
-    <mergeCell ref="A21:K21"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="A13:E16"/>
@@ -17935,6 +17447,20 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F18:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="A9:E9"/>
@@ -17945,16 +17471,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -17965,15 +17481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="6" width="19" customWidth="1" style="33"/>
@@ -17981,7 +17496,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -17991,7 +17506,7 @@
     </row>
     <row r="2" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A2" s="21" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -18001,7 +17516,7 @@
     </row>
     <row r="3" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A3" s="38" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -18011,7 +17526,7 @@
     </row>
     <row r="4" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A4" s="21" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -18021,7 +17536,7 @@
     </row>
     <row r="5" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A5" s="38" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -18031,7 +17546,7 @@
     </row>
     <row r="6" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A6" s="21" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -18041,7 +17556,7 @@
     </row>
     <row r="7" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A7" s="38" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -18051,7 +17566,7 @@
     </row>
     <row r="8" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A8" s="21" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -18061,7 +17576,7 @@
     </row>
     <row r="9" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A9" s="38" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -18071,7 +17586,7 @@
     </row>
     <row r="10" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A10" s="21" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -18081,7 +17596,7 @@
     </row>
     <row r="11" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A11" s="38" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -18091,7 +17606,7 @@
     </row>
     <row r="12" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A12" s="21" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -18101,7 +17616,7 @@
     </row>
     <row r="13" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A13" s="38" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -18111,7 +17626,7 @@
     </row>
     <row r="14" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -18121,7 +17636,7 @@
     </row>
     <row r="15" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A15" s="38" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -18131,7 +17646,7 @@
     </row>
     <row r="16" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -18141,7 +17656,7 @@
     </row>
     <row r="17" ht="27" customHeight="1" s="38" customFormat="1">
       <c r="A17" s="38" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -18151,7 +17666,7 @@
     </row>
     <row r="18" ht="27" customHeight="1" s="22" customFormat="1">
       <c r="A18" s="21" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -18167,11 +17682,11 @@
     </row>
     <row r="21" ht="18.75" s="19" customFormat="1">
       <c r="A21" s="19" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -18179,11 +17694,11 @@
     </row>
     <row r="22" ht="18.75" s="19" customFormat="1">
       <c r="A22" s="19" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -18191,13 +17706,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1"/>
     <row r="26" ht="19.5" customHeight="1" s="16" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B26" s="23">
         <v>18</v>
@@ -18217,27 +17732,27 @@
     </row>
     <row r="27" ht="19.5" customHeight="1" s="26" customFormat="1">
       <c r="A27" s="25" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" s="16" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B28" s="23">
         <v>23</v>
@@ -18266,27 +17781,27 @@
     </row>
     <row r="29" ht="19.5" customHeight="1" s="29" customFormat="1">
       <c r="A29" s="27" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="16" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B30" s="23">
         <v>28</v>
@@ -18315,27 +17830,27 @@
     </row>
     <row r="31" ht="19.5" customHeight="1" s="29" customFormat="1">
       <c r="A31" s="27" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="16" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B32" s="23">
         <v>33</v>
@@ -18355,99 +17870,99 @@
     </row>
     <row r="33" ht="19.5" customHeight="1" s="29" customFormat="1">
       <c r="A33" s="27" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1"/>
     <row r="35" ht="19.5" customHeight="1"/>
     <row r="36" ht="19.5" customHeight="1" s="18" customFormat="1">
       <c r="A36" s="24" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="31" customFormat="1">
       <c r="A37" s="30" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1" s="18" customFormat="1">
       <c r="A38" s="24" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="F38" s="33"/>
     </row>
     <row r="39" ht="19.5" customHeight="1" s="31" customFormat="1">
       <c r="A39" s="30" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="F39" s="36"/>
     </row>
@@ -18459,15 +17974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
@@ -18475,188 +17989,188 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="144" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
     </row>
     <row r="2" ht="39" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="148"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="163"/>
     </row>
     <row r="3" ht="39" customHeight="1">
-      <c r="A3" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="147" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="148"/>
+      <c r="A3" s="164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="163"/>
     </row>
     <row r="4" ht="39" customHeight="1">
-      <c r="A4" s="150"/>
-      <c r="B4" s="147" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="148"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="163"/>
     </row>
     <row r="5" ht="27" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="151" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="152"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="167"/>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="154"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
     </row>
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="154"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
     </row>
     <row r="8" ht="44.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="156"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="171"/>
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="147" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="148"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="163"/>
     </row>
     <row r="10" ht="28.35" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="147" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="148"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="163"/>
     </row>
     <row r="11" ht="20.1" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="148"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="163"/>
     </row>
     <row r="12" ht="20.1" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
     </row>
     <row r="14" ht="20.1" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="148"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="163"/>
     </row>
     <row r="15" ht="20.1" customHeight="1">
-      <c r="A15" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="148"/>
+      <c r="A15" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="172"/>
+      <c r="C15" s="163"/>
     </row>
     <row r="16" ht="20.1" customHeight="1">
-      <c r="A16" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="148"/>
+      <c r="A16" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="172"/>
+      <c r="C16" s="163"/>
     </row>
     <row r="17" ht="28.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="159"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="174"/>
     </row>
     <row r="18" ht="68.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="160"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="175"/>
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
+        <v>28</v>
+      </c>
+      <c r="B19" s="168"/>
+      <c r="C19" s="169"/>
     </row>
     <row r="20" ht="23.25" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
     </row>
     <row r="21" ht="23.25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
+        <v>30</v>
+      </c>
+      <c r="B21" s="168"/>
+      <c r="C21" s="169"/>
     </row>
     <row r="22" ht="36" customHeight="1">
-      <c r="A22" s="161" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="162"/>
+      <c r="A22" s="176" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="177"/>
       <c r="C22" s="7" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="174" customHeight="1">
-      <c r="A23" s="147" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="160"/>
+      <c r="A23" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="175"/>
       <c r="C23" s="6" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
